--- a/static/mock/AntiBio2.xlsx
+++ b/static/mock/AntiBio2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexglushko/ProgProjects/ChemML/static/mock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41252699-8572-CC40-BF17-F9FE7DC67AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9161BA-9BFE-9F49-AB41-0B404661AF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="431">
   <si>
     <t>Table 1</t>
   </si>
@@ -7823,31 +7823,7 @@
     <t>X</t>
   </si>
   <si>
-    <t>Electronegativity, Oganov</t>
-  </si>
-  <si>
-    <t>Electronegativity, Malliken</t>
-  </si>
-  <si>
-    <t>Crystal structure type</t>
-  </si>
-  <si>
-    <t>Ln-O</t>
-  </si>
-  <si>
-    <t>Ln-N</t>
-  </si>
-  <si>
-    <t>Coordination number solution, Ln-O</t>
-  </si>
-  <si>
-    <t>Coordination number solution, Ln-N</t>
-  </si>
-  <si>
     <t>рН</t>
-  </si>
-  <si>
-    <t>lgβ</t>
   </si>
   <si>
     <t>Electronic structure RE3+</t>
@@ -8245,10 +8221,37 @@
     <t>A,baumannii</t>
   </si>
   <si>
-    <t>Ionic radii</t>
-  </si>
-  <si>
-    <t>Electronegativity, Paulling</t>
+    <t>Ionic radii RE (salt)</t>
+  </si>
+  <si>
+    <t>Electronegativity (Oganov)</t>
+  </si>
+  <si>
+    <t>Electronegativity (Malliken)</t>
+  </si>
+  <si>
+    <t>Electronegativity (Paulling)</t>
+  </si>
+  <si>
+    <t>Crystal structure type (salt)</t>
+  </si>
+  <si>
+    <t>RE-O(H2O) (solution)</t>
+  </si>
+  <si>
+    <t>RE-O(NO3) (solution)</t>
+  </si>
+  <si>
+    <t>Coordination number RE-O(H2O) (solution)</t>
+  </si>
+  <si>
+    <t>Coordination number RE-O(NO3) (solution)</t>
+  </si>
+  <si>
+    <t>рН (solution)</t>
+  </si>
+  <si>
+    <t>Nitrate complexes stability constant (solution)</t>
   </si>
 </sst>
 </file>
@@ -9956,18 +9959,18 @@
   <autoFilter ref="A1:O18" xr:uid="{5B39327C-6F00-4B19-9643-F57E7FC84AB4}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{1A9DDC62-D566-4076-B632-798A07FC1666}" name="REE" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{AA4574FB-99A2-4A92-B821-B745497EA962}" name="Ionic radii" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{AA4574FB-99A2-4A92-B821-B745497EA962}" name="Ionic radii RE (salt)" dataDxfId="18"/>
     <tableColumn id="3" xr3:uid="{D1ECC61C-4854-4577-90E3-C164C293303C}" name="X"/>
-    <tableColumn id="4" xr3:uid="{D5E4E7A0-0668-4B7F-8A2E-661374B56795}" name="Electronegativity, Oganov" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{C659ED5F-0C86-4348-908C-75C2F2912435}" name="Electronegativity, Malliken"/>
-    <tableColumn id="6" xr3:uid="{B0CCAAB9-419B-4934-A06E-2A1863F892CE}" name="Electronegativity, Paulling"/>
-    <tableColumn id="7" xr3:uid="{47552FFA-1724-48B2-9EF2-40DB88A32DFF}" name="Crystal structure type" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{2752E3FC-0090-4E4C-B78A-E2A256EEEC3A}" name="Ln-O"/>
-    <tableColumn id="9" xr3:uid="{C1B48565-8F71-437F-8216-A629567C1039}" name="Ln-N"/>
-    <tableColumn id="10" xr3:uid="{C7BFF689-9067-4DB1-AA51-FF9BA3D19236}" name="Coordination number solution, Ln-O"/>
-    <tableColumn id="11" xr3:uid="{1010A3C6-35B5-4C64-B876-452802969514}" name="Coordination number solution, Ln-N"/>
-    <tableColumn id="12" xr3:uid="{AE581433-01F0-4550-8699-0CCB8B08D3B5}" name="рН" dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{1024CE0A-F9A1-4B89-B3F2-D3EA96F68204}" name="lgβ" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{D5E4E7A0-0668-4B7F-8A2E-661374B56795}" name="Electronegativity (Oganov)" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{C659ED5F-0C86-4348-908C-75C2F2912435}" name="Electronegativity (Malliken)"/>
+    <tableColumn id="6" xr3:uid="{B0CCAAB9-419B-4934-A06E-2A1863F892CE}" name="Electronegativity (Paulling)"/>
+    <tableColumn id="7" xr3:uid="{47552FFA-1724-48B2-9EF2-40DB88A32DFF}" name="Crystal structure type (salt)" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{2752E3FC-0090-4E4C-B78A-E2A256EEEC3A}" name="RE-O(H2O) (solution)"/>
+    <tableColumn id="9" xr3:uid="{C1B48565-8F71-437F-8216-A629567C1039}" name="RE-O(NO3) (solution)"/>
+    <tableColumn id="10" xr3:uid="{C7BFF689-9067-4DB1-AA51-FF9BA3D19236}" name="Coordination number RE-O(H2O) (solution)"/>
+    <tableColumn id="11" xr3:uid="{1010A3C6-35B5-4C64-B876-452802969514}" name="Coordination number RE-O(NO3) (solution)"/>
+    <tableColumn id="12" xr3:uid="{AE581433-01F0-4550-8699-0CCB8B08D3B5}" name="рН (solution)" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{1024CE0A-F9A1-4B89-B3F2-D3EA96F68204}" name="Nitrate complexes stability constant (solution)" dataDxfId="14"/>
     <tableColumn id="14" xr3:uid="{927DBA1C-38E2-4AC4-9672-332C0B720B8C}" name="Electronic structure RE3+" dataDxfId="13"/>
     <tableColumn id="15" xr3:uid="{165BF484-9A6D-4B3C-B2ED-CDCCB83A6FB3}" name="Price"/>
   </tableColumns>
@@ -12559,8 +12562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12584,51 +12587,51 @@
         <v>288</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C1" s="68" t="s">
         <v>289</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>290</v>
+        <v>421</v>
       </c>
       <c r="E1" s="68" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>424</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>425</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>426</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>430</v>
+      </c>
+      <c r="N1" s="68" t="s">
         <v>291</v>
       </c>
-      <c r="F1" s="68" t="s">
-        <v>429</v>
-      </c>
-      <c r="G1" s="68" t="s">
+      <c r="O1" s="69" t="s">
         <v>292</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>293</v>
-      </c>
-      <c r="I1" s="68" t="s">
-        <v>294</v>
-      </c>
-      <c r="J1" s="68" t="s">
-        <v>295</v>
-      </c>
-      <c r="K1" s="68" t="s">
-        <v>296</v>
-      </c>
-      <c r="L1" s="68" t="s">
-        <v>297</v>
-      </c>
-      <c r="M1" s="68" t="s">
-        <v>298</v>
-      </c>
-      <c r="N1" s="68" t="s">
-        <v>299</v>
-      </c>
-      <c r="O1" s="69" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="62" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B2" s="13">
         <v>1.03</v>
@@ -12657,7 +12660,7 @@
       </c>
       <c r="M2" s="13"/>
       <c r="N2" s="12" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="O2" s="64">
         <v>138000</v>
@@ -12665,7 +12668,7 @@
     </row>
     <row r="3" spans="1:15" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="63" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B3" s="18">
         <v>1.01</v>
@@ -12704,7 +12707,7 @@
         <v>0.9</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="O3" s="65">
         <v>32790</v>
@@ -12712,7 +12715,7 @@
     </row>
     <row r="4" spans="1:15" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="62" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B4" s="13">
         <v>0.99</v>
@@ -12749,7 +12752,7 @@
         <v>0.9</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="O4" s="64">
         <v>98500</v>
@@ -12757,7 +12760,7 @@
     </row>
     <row r="5" spans="1:15" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B5" s="18">
         <v>0.98</v>
@@ -12796,7 +12799,7 @@
         <v>0.75</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O5" s="66">
         <v>47800</v>
@@ -12804,7 +12807,7 @@
     </row>
     <row r="6" spans="1:15" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="62" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B6" s="13">
         <v>0.96</v>
@@ -12843,7 +12846,7 @@
         <v>0.9</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="O6" s="64">
         <v>97000</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="7" spans="1:15" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B7" s="18">
         <v>0.95</v>
@@ -12888,7 +12891,7 @@
         <v>0.8</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="O7" s="65">
         <v>134500</v>
@@ -12896,7 +12899,7 @@
     </row>
     <row r="8" spans="1:15" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="62" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B8" s="13">
         <v>0.94</v>
@@ -12933,7 +12936,7 @@
         <v>0.8</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="O8" s="64">
         <v>78450</v>
@@ -12941,7 +12944,7 @@
     </row>
     <row r="9" spans="1:15" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B9" s="18">
         <v>0.92</v>
@@ -12980,7 +12983,7 @@
         <v>0.7</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="O9" s="65">
         <v>81650</v>
@@ -12988,7 +12991,7 @@
     </row>
     <row r="10" spans="1:15" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="62" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B10" s="13">
         <v>0.91</v>
@@ -13027,7 +13030,7 @@
         <v>0.6</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="O10" s="64">
         <v>72000</v>
@@ -13035,7 +13038,7 @@
     </row>
     <row r="11" spans="1:15" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="63" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B11" s="18">
         <v>0.9</v>
@@ -13074,7 +13077,7 @@
         <v>0.5</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="O11" s="65">
         <v>16000</v>
@@ -13082,7 +13085,7 @@
     </row>
     <row r="12" spans="1:15" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="62" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B12" s="13">
         <v>0.89</v>
@@ -13119,7 +13122,7 @@
         <v>0.4</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="O12" s="64">
         <v>89500</v>
@@ -13127,7 +13130,7 @@
     </row>
     <row r="13" spans="1:15" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B13" s="18">
         <v>0.88</v>
@@ -13164,7 +13167,7 @@
         <v>0.4</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O13" s="65">
         <v>44910</v>
@@ -13172,7 +13175,7 @@
     </row>
     <row r="14" spans="1:15" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="62" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B14" s="13">
         <v>0.87</v>
@@ -13209,7 +13212,7 @@
         <v>0.4</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="O14" s="64">
         <v>84040</v>
@@ -13217,7 +13220,7 @@
     </row>
     <row r="15" spans="1:15" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="63" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B15" s="18">
         <v>0.86</v>
@@ -13254,7 +13257,7 @@
         <v>0.6</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="O15" s="65">
         <v>252000</v>
@@ -13262,7 +13265,7 @@
     </row>
     <row r="16" spans="1:15" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="62" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B16" s="13">
         <v>0.9</v>
@@ -13289,7 +13292,7 @@
       </c>
       <c r="M16" s="13"/>
       <c r="N16" s="12" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="O16" s="64">
         <v>15260</v>
@@ -13297,7 +13300,7 @@
     </row>
     <row r="17" spans="1:15" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="63" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B17" s="18">
         <v>0.75</v>
@@ -13324,7 +13327,7 @@
       </c>
       <c r="M17" s="18"/>
       <c r="N17" s="17" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="O17" s="65">
         <v>286300</v>
@@ -13332,7 +13335,7 @@
     </row>
     <row r="18" spans="1:15" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="70" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B18" s="71">
         <v>1</v>
@@ -13361,10 +13364,10 @@
       </c>
       <c r="M18" s="71"/>
       <c r="N18" s="75" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="O18" s="76" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -13407,48 +13410,48 @@
   <sheetData>
     <row r="1" spans="1:13" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="83" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="84" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1" s="84" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" s="84" t="s">
+        <v>333</v>
+      </c>
+      <c r="H1" s="84" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1" s="84" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="J1" s="84" t="s">
         <v>336</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="K1" s="84" t="s">
         <v>337</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="L1" s="84" t="s">
         <v>338</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="M1" s="85" t="s">
         <v>339</v>
-      </c>
-      <c r="F1" s="84" t="s">
-        <v>340</v>
-      </c>
-      <c r="G1" s="84" t="s">
-        <v>341</v>
-      </c>
-      <c r="H1" s="84" t="s">
-        <v>342</v>
-      </c>
-      <c r="I1" s="84" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1" s="84" t="s">
-        <v>344</v>
-      </c>
-      <c r="K1" s="84" t="s">
-        <v>345</v>
-      </c>
-      <c r="L1" s="84" t="s">
-        <v>346</v>
-      </c>
-      <c r="M1" s="85" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="77" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B2" s="24">
         <v>1</v>
@@ -13489,7 +13492,7 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="78" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B3" s="26">
         <v>-1</v>
@@ -13530,7 +13533,7 @@
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B4" s="24">
         <v>-1</v>
@@ -13571,7 +13574,7 @@
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="78" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B5" s="26">
         <v>-1</v>
@@ -13735,7 +13738,7 @@
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="78" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -13819,21 +13822,21 @@
         <v>288</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C1" s="84" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="77" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C2" s="29">
         <v>0</v>
@@ -13844,10 +13847,10 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="78" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C3" s="30">
         <v>0</v>
@@ -13858,10 +13861,10 @@
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C4" s="29">
         <v>0</v>
@@ -13872,10 +13875,10 @@
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="78" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C5" s="30">
         <v>0</v>
@@ -13886,10 +13889,10 @@
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="77" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C6" s="29">
         <v>0</v>
@@ -13900,10 +13903,10 @@
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="78" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C7" s="30">
         <v>0</v>
@@ -13914,10 +13917,10 @@
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="77" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C8" s="29">
         <v>0</v>
@@ -13928,10 +13931,10 @@
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="78" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C9" s="30">
         <v>0</v>
@@ -13942,10 +13945,10 @@
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="77" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C10" s="29">
         <v>0</v>
@@ -13956,10 +13959,10 @@
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C11" s="30">
         <v>0</v>
@@ -13970,10 +13973,10 @@
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="77" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C12" s="29">
         <v>0</v>
@@ -13984,10 +13987,10 @@
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C13" s="30">
         <v>0</v>
@@ -13998,10 +14001,10 @@
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="77" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C14" s="29">
         <v>0</v>
@@ -14012,10 +14015,10 @@
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C15" s="30">
         <v>0</v>
@@ -14026,10 +14029,10 @@
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="77" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C16" s="29">
         <v>0</v>
@@ -14040,10 +14043,10 @@
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C17" s="30">
         <v>0</v>
@@ -14054,10 +14057,10 @@
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="77" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C18" s="29">
         <v>0</v>
@@ -14068,10 +14071,10 @@
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C19" s="30">
         <v>1</v>
@@ -14082,10 +14085,10 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="77" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C20" s="29">
         <v>1</v>
@@ -14096,10 +14099,10 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="78" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C21" s="30">
         <v>1</v>
@@ -14110,10 +14113,10 @@
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="77" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C22" s="29">
         <v>1</v>
@@ -14124,10 +14127,10 @@
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="78" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C23" s="30">
         <v>1</v>
@@ -14138,10 +14141,10 @@
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="77" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C24" s="29">
         <v>1</v>
@@ -14152,10 +14155,10 @@
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="78" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C25" s="30">
         <v>1</v>
@@ -14166,10 +14169,10 @@
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="77" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C26" s="29">
         <v>1</v>
@@ -14180,10 +14183,10 @@
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="78" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C27" s="30">
         <v>1</v>
@@ -14194,10 +14197,10 @@
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="77" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C28" s="29">
         <v>1</v>
@@ -14208,10 +14211,10 @@
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="78" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C29" s="30">
         <v>1</v>
@@ -14222,10 +14225,10 @@
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="77" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C30" s="29">
         <v>1</v>
@@ -14236,10 +14239,10 @@
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="78" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C31" s="30">
         <v>1</v>
@@ -14250,10 +14253,10 @@
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="77" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C32" s="29">
         <v>1</v>
@@ -14264,10 +14267,10 @@
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="78" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C33" s="30">
         <v>1</v>
@@ -14278,10 +14281,10 @@
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="77" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C34" s="29">
         <v>1</v>
@@ -14292,10 +14295,10 @@
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="78" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C35" s="30">
         <v>0</v>
@@ -14306,10 +14309,10 @@
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="77" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C36" s="29">
         <v>0</v>
@@ -14320,10 +14323,10 @@
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="78" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C37" s="30">
         <v>0</v>
@@ -14334,10 +14337,10 @@
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="77" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C38" s="29">
         <v>0</v>
@@ -14348,10 +14351,10 @@
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="78" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C39" s="30">
         <v>0</v>
@@ -14362,10 +14365,10 @@
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="77" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C40" s="29">
         <v>0</v>
@@ -14376,10 +14379,10 @@
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="78" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C41" s="30">
         <v>0</v>
@@ -14390,10 +14393,10 @@
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="77" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C42" s="29">
         <v>0</v>
@@ -14404,10 +14407,10 @@
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="78" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C43" s="30">
         <v>0</v>
@@ -14418,10 +14421,10 @@
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="77" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C44" s="29">
         <v>0</v>
@@ -14432,10 +14435,10 @@
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="78" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C45" s="30">
         <v>0</v>
@@ -14446,10 +14449,10 @@
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="77" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C46" s="29">
         <v>0</v>
@@ -14460,10 +14463,10 @@
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="78" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C47" s="30">
         <v>0</v>
@@ -14474,10 +14477,10 @@
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="77" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C48" s="29">
         <v>0</v>
@@ -14488,10 +14491,10 @@
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="78" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C49" s="30">
         <v>0</v>
@@ -14502,10 +14505,10 @@
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="77" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C50" s="29">
         <v>0</v>
@@ -14516,10 +14519,10 @@
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="78" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C51" s="30">
         <v>0</v>
@@ -14530,10 +14533,10 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="77" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C52" s="29">
         <v>1</v>
@@ -14544,10 +14547,10 @@
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="78" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C53" s="30">
         <v>1</v>
@@ -14558,10 +14561,10 @@
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="77" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C54" s="29">
         <v>1</v>
@@ -14572,10 +14575,10 @@
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="78" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C55" s="30">
         <v>1</v>
@@ -14586,10 +14589,10 @@
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="77" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C56" s="29">
         <v>1</v>
@@ -14600,10 +14603,10 @@
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="78" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C57" s="30">
         <v>1</v>
@@ -14614,10 +14617,10 @@
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="77" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C58" s="29">
         <v>1</v>
@@ -14628,10 +14631,10 @@
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="78" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C59" s="30">
         <v>1</v>
@@ -14642,10 +14645,10 @@
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="77" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C60" s="29">
         <v>1</v>
@@ -14656,10 +14659,10 @@
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="78" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C61" s="30">
         <v>1</v>
@@ -14670,10 +14673,10 @@
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="77" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C62" s="29">
         <v>1</v>
@@ -14684,10 +14687,10 @@
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="78" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C63" s="30">
         <v>1</v>
@@ -14698,10 +14701,10 @@
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="77" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C64" s="29">
         <v>1</v>
@@ -14712,10 +14715,10 @@
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="78" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C65" s="30">
         <v>1</v>
@@ -14726,10 +14729,10 @@
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="77" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C66" s="29">
         <v>1</v>
@@ -14740,10 +14743,10 @@
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="78" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C67" s="30">
         <v>1</v>
@@ -14754,10 +14757,10 @@
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="77" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C68" s="29">
         <v>0</v>
@@ -14768,10 +14771,10 @@
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="78" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C69" s="30">
         <v>0</v>
@@ -14782,10 +14785,10 @@
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="77" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C70" s="29">
         <v>0</v>
@@ -14796,10 +14799,10 @@
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="78" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C71" s="30">
         <v>0</v>
@@ -14810,10 +14813,10 @@
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="77" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C72" s="29">
         <v>0</v>
@@ -14824,10 +14827,10 @@
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="78" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C73" s="30">
         <v>0</v>
@@ -14838,10 +14841,10 @@
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="77" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C74" s="29">
         <v>0</v>
@@ -14852,10 +14855,10 @@
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="78" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C75" s="30">
         <v>0</v>
@@ -14866,10 +14869,10 @@
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="77" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C76" s="29">
         <v>0</v>
@@ -14880,10 +14883,10 @@
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="78" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C77" s="30">
         <v>0</v>
@@ -14894,10 +14897,10 @@
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="77" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C78" s="29">
         <v>0</v>
@@ -14908,10 +14911,10 @@
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="78" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C79" s="30">
         <v>0</v>
@@ -14922,10 +14925,10 @@
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="77" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C80" s="29">
         <v>0</v>
@@ -14936,10 +14939,10 @@
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="78" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C81" s="30">
         <v>0</v>
@@ -14950,10 +14953,10 @@
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="77" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C82" s="29">
         <v>0</v>
@@ -14964,10 +14967,10 @@
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="78" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C83" s="30">
         <v>0</v>
@@ -14978,10 +14981,10 @@
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="77" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C84" s="29">
         <v>0</v>
@@ -14992,10 +14995,10 @@
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="78" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C85" s="30">
         <v>1</v>
@@ -15006,10 +15009,10 @@
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="77" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C86" s="29">
         <v>1</v>
@@ -15020,10 +15023,10 @@
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="78" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C87" s="30">
         <v>1</v>
@@ -15034,10 +15037,10 @@
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="77" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C88" s="29">
         <v>1</v>
@@ -15048,10 +15051,10 @@
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="78" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C89" s="30">
         <v>1</v>
@@ -15062,10 +15065,10 @@
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="77" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C90" s="29">
         <v>1</v>
@@ -15076,10 +15079,10 @@
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="78" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C91" s="30">
         <v>1</v>
@@ -15090,10 +15093,10 @@
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="77" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C92" s="29">
         <v>1</v>
@@ -15104,10 +15107,10 @@
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="78" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C93" s="30">
         <v>1</v>
@@ -15118,10 +15121,10 @@
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="77" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C94" s="29">
         <v>1</v>
@@ -15132,10 +15135,10 @@
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="78" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C95" s="30">
         <v>1</v>
@@ -15146,10 +15149,10 @@
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="77" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C96" s="29">
         <v>1</v>
@@ -15160,10 +15163,10 @@
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="78" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C97" s="30">
         <v>1</v>
@@ -15174,10 +15177,10 @@
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="77" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C98" s="29">
         <v>1</v>
@@ -15188,10 +15191,10 @@
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="78" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C99" s="30">
         <v>1</v>
@@ -15202,10 +15205,10 @@
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="77" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C100" s="29">
         <v>1</v>
@@ -15216,10 +15219,10 @@
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="78" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C101" s="30">
         <v>1</v>
@@ -15230,10 +15233,10 @@
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="77" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C102" s="29">
         <v>1</v>
@@ -15244,10 +15247,10 @@
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="78" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C103" s="30">
         <v>1</v>
@@ -15258,10 +15261,10 @@
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="77" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C104" s="29">
         <v>1</v>
@@ -15272,10 +15275,10 @@
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="78" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C105" s="30">
         <v>1</v>
@@ -15286,10 +15289,10 @@
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="77" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C106" s="29">
         <v>1</v>
@@ -15300,10 +15303,10 @@
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="78" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C107" s="30">
         <v>1</v>
@@ -15314,10 +15317,10 @@
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="77" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C108" s="29">
         <v>1</v>
@@ -15328,10 +15331,10 @@
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="78" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C109" s="30">
         <v>1</v>
@@ -15342,10 +15345,10 @@
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="77" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C110" s="29">
         <v>1</v>
@@ -15356,10 +15359,10 @@
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="78" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C111" s="30">
         <v>1</v>
@@ -15370,10 +15373,10 @@
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="77" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C112" s="29">
         <v>1</v>
@@ -15384,10 +15387,10 @@
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="78" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C113" s="30">
         <v>1</v>
@@ -15398,10 +15401,10 @@
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="77" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C114" s="29">
         <v>1</v>
@@ -15412,7 +15415,7 @@
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="78" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B115" s="25" t="s">
         <v>23</v>
@@ -15426,7 +15429,7 @@
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="77" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B116" s="23" t="s">
         <v>23</v>
@@ -15440,7 +15443,7 @@
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="78" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B117" s="25" t="s">
         <v>23</v>
@@ -15454,7 +15457,7 @@
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="77" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B118" s="23" t="s">
         <v>23</v>
@@ -15468,7 +15471,7 @@
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="78" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B119" s="25" t="s">
         <v>23</v>
@@ -15482,7 +15485,7 @@
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="77" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B120" s="23" t="s">
         <v>23</v>
@@ -15496,7 +15499,7 @@
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="78" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B121" s="25" t="s">
         <v>23</v>
@@ -15510,7 +15513,7 @@
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="77" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B122" s="23" t="s">
         <v>23</v>
@@ -15524,7 +15527,7 @@
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="78" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B123" s="25" t="s">
         <v>23</v>
@@ -15538,7 +15541,7 @@
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="77" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B124" s="23" t="s">
         <v>23</v>
@@ -15552,7 +15555,7 @@
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="78" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B125" s="25" t="s">
         <v>23</v>
@@ -15566,7 +15569,7 @@
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="77" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B126" s="23" t="s">
         <v>23</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="78" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B127" s="25" t="s">
         <v>23</v>
@@ -15594,7 +15597,7 @@
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="77" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B128" s="23" t="s">
         <v>23</v>
@@ -15608,7 +15611,7 @@
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="78" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B129" s="25" t="s">
         <v>24</v>
@@ -15622,7 +15625,7 @@
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="77" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B130" s="23" t="s">
         <v>24</v>
@@ -15636,7 +15639,7 @@
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="78" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B131" s="25" t="s">
         <v>24</v>
@@ -15650,7 +15653,7 @@
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="77" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B132" s="23" t="s">
         <v>24</v>
@@ -15664,7 +15667,7 @@
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="78" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B133" s="25" t="s">
         <v>24</v>
@@ -15678,7 +15681,7 @@
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="77" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B134" s="23" t="s">
         <v>24</v>
@@ -15692,7 +15695,7 @@
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="78" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B135" s="25" t="s">
         <v>24</v>
@@ -15706,7 +15709,7 @@
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="77" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B136" s="23" t="s">
         <v>24</v>
@@ -15720,7 +15723,7 @@
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="78" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B137" s="25" t="s">
         <v>24</v>
@@ -15734,7 +15737,7 @@
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="77" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B138" s="23" t="s">
         <v>24</v>
@@ -15748,7 +15751,7 @@
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="78" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B139" s="25" t="s">
         <v>24</v>
@@ -15762,7 +15765,7 @@
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="77" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B140" s="23" t="s">
         <v>24</v>
@@ -15776,7 +15779,7 @@
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="78" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B141" s="25" t="s">
         <v>24</v>
@@ -15790,7 +15793,7 @@
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="77" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B142" s="23" t="s">
         <v>25</v>
@@ -15804,7 +15807,7 @@
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="78" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B143" s="25" t="s">
         <v>25</v>
@@ -15818,7 +15821,7 @@
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="77" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B144" s="23" t="s">
         <v>25</v>
@@ -15832,7 +15835,7 @@
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="78" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B145" s="25" t="s">
         <v>25</v>
@@ -15846,7 +15849,7 @@
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="77" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B146" s="23" t="s">
         <v>25</v>
@@ -15860,7 +15863,7 @@
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="78" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B147" s="25" t="s">
         <v>25</v>
@@ -15874,7 +15877,7 @@
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="77" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B148" s="23" t="s">
         <v>25</v>
@@ -15888,7 +15891,7 @@
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="78" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B149" s="25" t="s">
         <v>25</v>
@@ -15902,7 +15905,7 @@
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="77" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B150" s="23" t="s">
         <v>25</v>
@@ -15916,7 +15919,7 @@
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="78" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B151" s="25" t="s">
         <v>25</v>
@@ -15930,7 +15933,7 @@
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="77" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B152" s="23" t="s">
         <v>25</v>
@@ -15944,7 +15947,7 @@
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="78" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B153" s="25" t="s">
         <v>25</v>
@@ -15958,7 +15961,7 @@
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="77" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B154" s="23" t="s">
         <v>25</v>
@@ -15972,10 +15975,10 @@
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="78" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C155" s="30">
         <v>1</v>
@@ -15986,10 +15989,10 @@
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="77" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C156" s="29">
         <v>1</v>
@@ -16000,10 +16003,10 @@
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="78" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C157" s="30">
         <v>1</v>
@@ -16014,10 +16017,10 @@
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="77" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C158" s="29">
         <v>1</v>
@@ -16028,10 +16031,10 @@
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="78" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C159" s="30">
         <v>1</v>
@@ -16042,10 +16045,10 @@
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="77" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C160" s="29">
         <v>1</v>
@@ -16056,10 +16059,10 @@
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="78" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C161" s="30">
         <v>1</v>
@@ -16070,10 +16073,10 @@
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="77" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C162" s="29">
         <v>1</v>
@@ -16084,10 +16087,10 @@
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="78" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C163" s="30">
         <v>1</v>
@@ -16098,10 +16101,10 @@
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="77" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C164" s="29">
         <v>1</v>
@@ -16112,10 +16115,10 @@
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="78" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C165" s="30">
         <v>1</v>
@@ -16126,10 +16129,10 @@
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="77" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C166" s="29">
         <v>1</v>
@@ -16140,10 +16143,10 @@
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="78" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B167" s="25" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C167" s="30">
         <v>1</v>
@@ -16154,10 +16157,10 @@
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="77" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C168" s="29">
         <v>1</v>
@@ -16168,10 +16171,10 @@
     </row>
     <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="78" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C169" s="30">
         <v>1</v>
@@ -16182,10 +16185,10 @@
     </row>
     <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="77" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B170" s="23" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C170" s="29">
         <v>1</v>
@@ -16196,10 +16199,10 @@
     </row>
     <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="78" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C171" s="30">
         <v>1</v>
@@ -16210,10 +16213,10 @@
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="77" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C172" s="29">
         <v>1</v>
@@ -16224,10 +16227,10 @@
     </row>
     <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="78" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C173" s="30">
         <v>1</v>
@@ -16238,10 +16241,10 @@
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="77" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C174" s="29">
         <v>1</v>
@@ -16252,10 +16255,10 @@
     </row>
     <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="78" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C175" s="30">
         <v>1</v>
@@ -16266,10 +16269,10 @@
     </row>
     <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="77" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C176" s="29">
         <v>1</v>
@@ -16280,10 +16283,10 @@
     </row>
     <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="78" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C177" s="30">
         <v>1</v>
@@ -16294,10 +16297,10 @@
     </row>
     <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="77" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C178" s="29">
         <v>1</v>
@@ -16308,10 +16311,10 @@
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="78" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C179" s="30">
         <v>1</v>
@@ -16322,10 +16325,10 @@
     </row>
     <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="77" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C180" s="29">
         <v>1</v>
@@ -16336,10 +16339,10 @@
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="78" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C181" s="30">
         <v>1</v>
@@ -16350,10 +16353,10 @@
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="77" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C182" s="29">
         <v>1</v>
@@ -16364,7 +16367,7 @@
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="78" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B183" s="25" t="s">
         <v>28</v>
@@ -16378,7 +16381,7 @@
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="77" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B184" s="23" t="s">
         <v>28</v>
@@ -16392,7 +16395,7 @@
     </row>
     <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="78" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B185" s="25" t="s">
         <v>28</v>
@@ -16406,7 +16409,7 @@
     </row>
     <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="77" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B186" s="23" t="s">
         <v>28</v>
@@ -16420,7 +16423,7 @@
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="78" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B187" s="25" t="s">
         <v>28</v>
@@ -16434,7 +16437,7 @@
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="77" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B188" s="23" t="s">
         <v>28</v>
@@ -16448,7 +16451,7 @@
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="78" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B189" s="25" t="s">
         <v>28</v>
@@ -16462,7 +16465,7 @@
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="77" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B190" s="23" t="s">
         <v>28</v>
@@ -16476,7 +16479,7 @@
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="78" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B191" s="25" t="s">
         <v>28</v>
@@ -16490,7 +16493,7 @@
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="77" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B192" s="23" t="s">
         <v>28</v>
@@ -16504,7 +16507,7 @@
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="78" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B193" s="25" t="s">
         <v>28</v>
@@ -16518,7 +16521,7 @@
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="77" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B194" s="23" t="s">
         <v>28</v>
@@ -16532,7 +16535,7 @@
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="78" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B195" s="25" t="s">
         <v>28</v>
@@ -16546,7 +16549,7 @@
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="91" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B196" s="92" t="s">
         <v>28</v>
@@ -16592,7 +16595,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -16605,55 +16608,55 @@
     </row>
     <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="I3" s="37"/>
     </row>
@@ -16662,22 +16665,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H4" s="41"/>
       <c r="I4" s="37"/>
@@ -16687,20 +16690,20 @@
         <v>2</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="43" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="37"/>
@@ -16710,18 +16713,18 @@
         <v>3</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="47"/>
       <c r="G6" s="40" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="37"/>
@@ -16731,18 +16734,18 @@
         <v>4</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="44"/>
       <c r="G7" s="45" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H7" s="46"/>
       <c r="I7" s="37"/>
@@ -16752,18 +16755,18 @@
         <v>5</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="47"/>
       <c r="G8" s="40" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H8" s="41"/>
       <c r="I8" s="37"/>
@@ -16773,18 +16776,18 @@
         <v>6</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="45" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H9" s="46"/>
       <c r="I9" s="37"/>
@@ -16794,18 +16797,18 @@
         <v>7</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="47"/>
       <c r="G10" s="40" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="37"/>
@@ -16815,18 +16818,18 @@
         <v>8</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="45" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="H11" s="46"/>
       <c r="I11" s="37"/>
@@ -16836,18 +16839,18 @@
         <v>9</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
       <c r="G12" s="40" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="37"/>
@@ -16890,7 +16893,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -16901,22 +16904,22 @@
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G2" s="54"/>
     </row>
@@ -16925,16 +16928,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F3" s="57">
         <v>1496</v>
@@ -16946,16 +16949,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F4" s="60">
         <v>585</v>
@@ -16967,16 +16970,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F5" s="57">
         <v>59201</v>
@@ -16988,16 +16991,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F6" s="60">
         <v>622</v>
@@ -17009,7 +17012,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>24</v>
@@ -17018,7 +17021,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F7" s="57">
         <v>470</v>

--- a/static/mock/AntiBio2.xlsx
+++ b/static/mock/AntiBio2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexglushko/ProgProjects/ChemML/static/mock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9161BA-9BFE-9F49-AB41-0B404661AF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632779A6-3EC0-2A41-B52C-96C348F37625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -7937,42 +7937,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Gram-stain</t>
-  </si>
-  <si>
-    <t>Wall thickness min</t>
-  </si>
-  <si>
-    <t>Wall thickness max</t>
-  </si>
-  <si>
-    <t>Wall structure</t>
-  </si>
-  <si>
-    <t>Wall composition 1</t>
-  </si>
-  <si>
-    <t>Wall composition 2</t>
-  </si>
-  <si>
-    <t>Outer membrane</t>
-  </si>
-  <si>
-    <t>Membrane pore diameter min</t>
-  </si>
-  <si>
-    <t>Membrane pore diameter max</t>
-  </si>
-  <si>
-    <t>Proteins</t>
-  </si>
-  <si>
-    <t>Penicillin sensitivity</t>
-  </si>
-  <si>
-    <t>Well layers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Staphylococcus aureus </t>
   </si>
   <si>
@@ -8252,6 +8216,42 @@
   </si>
   <si>
     <t>Nitrate complexes stability constant (solution)</t>
+  </si>
+  <si>
+    <t>Gram-stain (bacteria)</t>
+  </si>
+  <si>
+    <t>Wall thickness min (bacteria)</t>
+  </si>
+  <si>
+    <t>Wall thickness max (bacteria)</t>
+  </si>
+  <si>
+    <t>Wall structure (bacteria)</t>
+  </si>
+  <si>
+    <t>Wall composition 1 (bacteria)</t>
+  </si>
+  <si>
+    <t>Wall composition 2 (bacteria)</t>
+  </si>
+  <si>
+    <t>Outer membrane (bacteria)</t>
+  </si>
+  <si>
+    <t>Membrane pore diameter min (bacteria)</t>
+  </si>
+  <si>
+    <t>Membrane pore diameter max (bacteria)</t>
+  </si>
+  <si>
+    <t>Proteins (bacteria)</t>
+  </si>
+  <si>
+    <t>Penicillin sensitivity (bacteria)</t>
+  </si>
+  <si>
+    <t>Cell layers (bacteria)</t>
   </si>
 </sst>
 </file>
@@ -9983,18 +9983,18 @@
   <autoFilter ref="A1:M11" xr:uid="{86C18EE8-B3D1-48CE-B446-E33E7111CD7F}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{A979CDFF-9E49-49EB-AD0A-860DDB0DF177}" name="Name" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{DE85D8B0-C35E-4DDC-BB6E-9F50088A0D17}" name="Gram-stain"/>
-    <tableColumn id="3" xr3:uid="{8E0568C2-3BD7-4BB4-9904-6237AF7C938A}" name="Wall thickness min"/>
-    <tableColumn id="4" xr3:uid="{B531D164-8CBF-4E29-B774-636712073D15}" name="Wall thickness max"/>
-    <tableColumn id="5" xr3:uid="{D9BDEBC1-E630-4208-B7FE-BBB810455296}" name="Wall structure"/>
-    <tableColumn id="6" xr3:uid="{F7F74330-219A-4DF6-A4D1-1DDE9275774C}" name="Wall composition 1"/>
-    <tableColumn id="7" xr3:uid="{A0E3C829-9352-4BA1-B397-E12D2ECF1B4B}" name="Wall composition 2"/>
-    <tableColumn id="8" xr3:uid="{DA807373-E4E5-45C4-91E9-E065B303330A}" name="Outer membrane"/>
-    <tableColumn id="9" xr3:uid="{77F38E76-FB2A-4768-9C5D-63E17B2A8006}" name="Membrane pore diameter min"/>
-    <tableColumn id="10" xr3:uid="{8FB9B41A-517E-48BA-8C31-03E0D9D51F9B}" name="Membrane pore diameter max"/>
-    <tableColumn id="11" xr3:uid="{BBF26C1C-555C-40F5-A492-D82650620C8B}" name="Proteins"/>
-    <tableColumn id="12" xr3:uid="{27E4EFA6-8C3B-48A3-B7AE-8F244DB19F4D}" name="Penicillin sensitivity"/>
-    <tableColumn id="13" xr3:uid="{293C5BDD-0954-4F08-8A5E-CDE5745F12C2}" name="Well layers"/>
+    <tableColumn id="2" xr3:uid="{DE85D8B0-C35E-4DDC-BB6E-9F50088A0D17}" name="Gram-stain (bacteria)"/>
+    <tableColumn id="3" xr3:uid="{8E0568C2-3BD7-4BB4-9904-6237AF7C938A}" name="Wall thickness min (bacteria)"/>
+    <tableColumn id="4" xr3:uid="{B531D164-8CBF-4E29-B774-636712073D15}" name="Wall thickness max (bacteria)"/>
+    <tableColumn id="5" xr3:uid="{D9BDEBC1-E630-4208-B7FE-BBB810455296}" name="Wall structure (bacteria)"/>
+    <tableColumn id="6" xr3:uid="{F7F74330-219A-4DF6-A4D1-1DDE9275774C}" name="Wall composition 1 (bacteria)"/>
+    <tableColumn id="7" xr3:uid="{A0E3C829-9352-4BA1-B397-E12D2ECF1B4B}" name="Wall composition 2 (bacteria)"/>
+    <tableColumn id="8" xr3:uid="{DA807373-E4E5-45C4-91E9-E065B303330A}" name="Outer membrane (bacteria)"/>
+    <tableColumn id="9" xr3:uid="{77F38E76-FB2A-4768-9C5D-63E17B2A8006}" name="Membrane pore diameter min (bacteria)"/>
+    <tableColumn id="10" xr3:uid="{8FB9B41A-517E-48BA-8C31-03E0D9D51F9B}" name="Membrane pore diameter max (bacteria)"/>
+    <tableColumn id="11" xr3:uid="{BBF26C1C-555C-40F5-A492-D82650620C8B}" name="Proteins (bacteria)"/>
+    <tableColumn id="12" xr3:uid="{27E4EFA6-8C3B-48A3-B7AE-8F244DB19F4D}" name="Penicillin sensitivity (bacteria)"/>
+    <tableColumn id="13" xr3:uid="{293C5BDD-0954-4F08-8A5E-CDE5745F12C2}" name="Cell layers (bacteria)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12562,7 +12562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
@@ -12587,40 +12587,40 @@
         <v>288</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C1" s="68" t="s">
         <v>289</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="F1" s="68" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="G1" s="68" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="H1" s="68" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="I1" s="68" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="K1" s="68" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="L1" s="68" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="M1" s="68" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>291</v>
@@ -13386,8 +13386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13413,45 +13413,45 @@
         <v>327</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>328</v>
+        <v>419</v>
       </c>
       <c r="C1" s="84" t="s">
-        <v>329</v>
+        <v>420</v>
       </c>
       <c r="D1" s="84" t="s">
-        <v>330</v>
+        <v>421</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>331</v>
+        <v>422</v>
       </c>
       <c r="F1" s="84" t="s">
-        <v>332</v>
+        <v>423</v>
       </c>
       <c r="G1" s="84" t="s">
-        <v>333</v>
+        <v>424</v>
       </c>
       <c r="H1" s="84" t="s">
-        <v>334</v>
+        <v>425</v>
       </c>
       <c r="I1" s="84" t="s">
-        <v>335</v>
+        <v>426</v>
       </c>
       <c r="J1" s="84" t="s">
-        <v>336</v>
+        <v>427</v>
       </c>
       <c r="K1" s="84" t="s">
-        <v>337</v>
+        <v>428</v>
       </c>
       <c r="L1" s="84" t="s">
-        <v>338</v>
+        <v>429</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>339</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="77" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B2" s="24">
         <v>1</v>
@@ -13492,7 +13492,7 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="78" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B3" s="26">
         <v>-1</v>
@@ -13533,7 +13533,7 @@
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B4" s="24">
         <v>-1</v>
@@ -13574,7 +13574,7 @@
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="78" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B5" s="26">
         <v>-1</v>
@@ -13738,7 +13738,7 @@
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="78" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -13822,13 +13822,13 @@
         <v>288</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C1" s="84" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13836,7 +13836,7 @@
         <v>293</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C2" s="29">
         <v>0</v>
@@ -13850,7 +13850,7 @@
         <v>295</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C3" s="30">
         <v>0</v>
@@ -13864,7 +13864,7 @@
         <v>297</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C4" s="29">
         <v>0</v>
@@ -13878,7 +13878,7 @@
         <v>299</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C5" s="30">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>301</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C6" s="29">
         <v>0</v>
@@ -13906,7 +13906,7 @@
         <v>303</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C7" s="30">
         <v>0</v>
@@ -13920,7 +13920,7 @@
         <v>305</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C8" s="29">
         <v>0</v>
@@ -13934,7 +13934,7 @@
         <v>307</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C9" s="30">
         <v>0</v>
@@ -13948,7 +13948,7 @@
         <v>309</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C10" s="29">
         <v>0</v>
@@ -13962,7 +13962,7 @@
         <v>311</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C11" s="30">
         <v>0</v>
@@ -13976,7 +13976,7 @@
         <v>313</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C12" s="29">
         <v>0</v>
@@ -13990,7 +13990,7 @@
         <v>315</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C13" s="30">
         <v>0</v>
@@ -14004,7 +14004,7 @@
         <v>316</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C14" s="29">
         <v>0</v>
@@ -14018,7 +14018,7 @@
         <v>318</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C15" s="30">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>320</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C16" s="29">
         <v>0</v>
@@ -14046,7 +14046,7 @@
         <v>322</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C17" s="30">
         <v>0</v>
@@ -14060,7 +14060,7 @@
         <v>324</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C18" s="29">
         <v>0</v>
@@ -14074,7 +14074,7 @@
         <v>293</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C19" s="30">
         <v>1</v>
@@ -14088,7 +14088,7 @@
         <v>295</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C20" s="29">
         <v>1</v>
@@ -14102,7 +14102,7 @@
         <v>297</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C21" s="30">
         <v>1</v>
@@ -14116,7 +14116,7 @@
         <v>299</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C22" s="29">
         <v>1</v>
@@ -14130,7 +14130,7 @@
         <v>301</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C23" s="30">
         <v>1</v>
@@ -14144,7 +14144,7 @@
         <v>303</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C24" s="29">
         <v>1</v>
@@ -14158,7 +14158,7 @@
         <v>305</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C25" s="30">
         <v>1</v>
@@ -14172,7 +14172,7 @@
         <v>307</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C26" s="29">
         <v>1</v>
@@ -14186,7 +14186,7 @@
         <v>309</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C27" s="30">
         <v>1</v>
@@ -14200,7 +14200,7 @@
         <v>313</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C28" s="29">
         <v>1</v>
@@ -14214,7 +14214,7 @@
         <v>315</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C29" s="30">
         <v>1</v>
@@ -14228,7 +14228,7 @@
         <v>316</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C30" s="29">
         <v>1</v>
@@ -14242,7 +14242,7 @@
         <v>318</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C31" s="30">
         <v>1</v>
@@ -14256,7 +14256,7 @@
         <v>320</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C32" s="29">
         <v>1</v>
@@ -14270,7 +14270,7 @@
         <v>322</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C33" s="30">
         <v>1</v>
@@ -14284,7 +14284,7 @@
         <v>324</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C34" s="29">
         <v>1</v>
@@ -14298,7 +14298,7 @@
         <v>293</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C35" s="30">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>295</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C36" s="29">
         <v>0</v>
@@ -14326,7 +14326,7 @@
         <v>297</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C37" s="30">
         <v>0</v>
@@ -14340,7 +14340,7 @@
         <v>299</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C38" s="29">
         <v>0</v>
@@ -14354,7 +14354,7 @@
         <v>301</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C39" s="30">
         <v>0</v>
@@ -14368,7 +14368,7 @@
         <v>303</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C40" s="29">
         <v>0</v>
@@ -14382,7 +14382,7 @@
         <v>305</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C41" s="30">
         <v>0</v>
@@ -14396,7 +14396,7 @@
         <v>307</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C42" s="29">
         <v>0</v>
@@ -14410,7 +14410,7 @@
         <v>309</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C43" s="30">
         <v>0</v>
@@ -14424,7 +14424,7 @@
         <v>311</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C44" s="29">
         <v>0</v>
@@ -14438,7 +14438,7 @@
         <v>313</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C45" s="30">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>315</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C46" s="29">
         <v>0</v>
@@ -14466,7 +14466,7 @@
         <v>316</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C47" s="30">
         <v>0</v>
@@ -14480,7 +14480,7 @@
         <v>318</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C48" s="29">
         <v>0</v>
@@ -14494,7 +14494,7 @@
         <v>320</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C49" s="30">
         <v>0</v>
@@ -14508,7 +14508,7 @@
         <v>322</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C50" s="29">
         <v>0</v>
@@ -14522,7 +14522,7 @@
         <v>324</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C51" s="30">
         <v>0</v>
@@ -14536,7 +14536,7 @@
         <v>293</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C52" s="29">
         <v>1</v>
@@ -14550,7 +14550,7 @@
         <v>295</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C53" s="30">
         <v>1</v>
@@ -14564,7 +14564,7 @@
         <v>297</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C54" s="29">
         <v>1</v>
@@ -14578,7 +14578,7 @@
         <v>299</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C55" s="30">
         <v>1</v>
@@ -14592,7 +14592,7 @@
         <v>301</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C56" s="29">
         <v>1</v>
@@ -14606,7 +14606,7 @@
         <v>303</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C57" s="30">
         <v>1</v>
@@ -14620,7 +14620,7 @@
         <v>305</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C58" s="29">
         <v>1</v>
@@ -14634,7 +14634,7 @@
         <v>307</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C59" s="30">
         <v>1</v>
@@ -14648,7 +14648,7 @@
         <v>309</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C60" s="29">
         <v>1</v>
@@ -14662,7 +14662,7 @@
         <v>313</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C61" s="30">
         <v>1</v>
@@ -14676,7 +14676,7 @@
         <v>315</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C62" s="29">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>316</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C63" s="30">
         <v>1</v>
@@ -14704,7 +14704,7 @@
         <v>318</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C64" s="29">
         <v>1</v>
@@ -14718,7 +14718,7 @@
         <v>320</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C65" s="30">
         <v>1</v>
@@ -14732,7 +14732,7 @@
         <v>322</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C66" s="29">
         <v>1</v>
@@ -14746,7 +14746,7 @@
         <v>324</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C67" s="30">
         <v>1</v>
@@ -14760,7 +14760,7 @@
         <v>293</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C68" s="29">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>295</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C69" s="30">
         <v>0</v>
@@ -14788,7 +14788,7 @@
         <v>297</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C70" s="29">
         <v>0</v>
@@ -14802,7 +14802,7 @@
         <v>299</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C71" s="30">
         <v>0</v>
@@ -14816,7 +14816,7 @@
         <v>301</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C72" s="29">
         <v>0</v>
@@ -14830,7 +14830,7 @@
         <v>303</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C73" s="30">
         <v>0</v>
@@ -14844,7 +14844,7 @@
         <v>305</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C74" s="29">
         <v>0</v>
@@ -14858,7 +14858,7 @@
         <v>307</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C75" s="30">
         <v>0</v>
@@ -14872,7 +14872,7 @@
         <v>309</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C76" s="29">
         <v>0</v>
@@ -14886,7 +14886,7 @@
         <v>311</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C77" s="30">
         <v>0</v>
@@ -14900,7 +14900,7 @@
         <v>313</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C78" s="29">
         <v>0</v>
@@ -14914,7 +14914,7 @@
         <v>315</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C79" s="30">
         <v>0</v>
@@ -14928,7 +14928,7 @@
         <v>316</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C80" s="29">
         <v>0</v>
@@ -14942,7 +14942,7 @@
         <v>318</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C81" s="30">
         <v>0</v>
@@ -14956,7 +14956,7 @@
         <v>320</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C82" s="29">
         <v>0</v>
@@ -14970,7 +14970,7 @@
         <v>322</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C83" s="30">
         <v>0</v>
@@ -14984,7 +14984,7 @@
         <v>324</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C84" s="29">
         <v>0</v>
@@ -14998,7 +14998,7 @@
         <v>293</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C85" s="30">
         <v>1</v>
@@ -15012,7 +15012,7 @@
         <v>295</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C86" s="29">
         <v>1</v>
@@ -15026,7 +15026,7 @@
         <v>297</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C87" s="30">
         <v>1</v>
@@ -15040,7 +15040,7 @@
         <v>299</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C88" s="29">
         <v>1</v>
@@ -15054,7 +15054,7 @@
         <v>301</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C89" s="30">
         <v>1</v>
@@ -15068,7 +15068,7 @@
         <v>303</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C90" s="29">
         <v>1</v>
@@ -15082,7 +15082,7 @@
         <v>305</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C91" s="30">
         <v>1</v>
@@ -15096,7 +15096,7 @@
         <v>307</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C92" s="29">
         <v>1</v>
@@ -15110,7 +15110,7 @@
         <v>309</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C93" s="30">
         <v>1</v>
@@ -15124,7 +15124,7 @@
         <v>313</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C94" s="29">
         <v>1</v>
@@ -15138,7 +15138,7 @@
         <v>315</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C95" s="30">
         <v>1</v>
@@ -15152,7 +15152,7 @@
         <v>316</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C96" s="29">
         <v>1</v>
@@ -15166,7 +15166,7 @@
         <v>318</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C97" s="30">
         <v>1</v>
@@ -15180,7 +15180,7 @@
         <v>320</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C98" s="29">
         <v>1</v>
@@ -15194,7 +15194,7 @@
         <v>322</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C99" s="30">
         <v>1</v>
@@ -15208,7 +15208,7 @@
         <v>324</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C100" s="29">
         <v>1</v>
@@ -15222,7 +15222,7 @@
         <v>293</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C101" s="30">
         <v>1</v>
@@ -15236,7 +15236,7 @@
         <v>295</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C102" s="29">
         <v>1</v>
@@ -15250,7 +15250,7 @@
         <v>297</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C103" s="30">
         <v>1</v>
@@ -15264,7 +15264,7 @@
         <v>299</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C104" s="29">
         <v>1</v>
@@ -15278,7 +15278,7 @@
         <v>301</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C105" s="30">
         <v>1</v>
@@ -15292,7 +15292,7 @@
         <v>305</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C106" s="29">
         <v>1</v>
@@ -15306,7 +15306,7 @@
         <v>309</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C107" s="30">
         <v>1</v>
@@ -15320,7 +15320,7 @@
         <v>311</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C108" s="29">
         <v>1</v>
@@ -15334,7 +15334,7 @@
         <v>313</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C109" s="30">
         <v>1</v>
@@ -15348,7 +15348,7 @@
         <v>315</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C110" s="29">
         <v>1</v>
@@ -15362,7 +15362,7 @@
         <v>316</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C111" s="30">
         <v>1</v>
@@ -15376,7 +15376,7 @@
         <v>318</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C112" s="29">
         <v>1</v>
@@ -15390,7 +15390,7 @@
         <v>320</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C113" s="30">
         <v>1</v>
@@ -15404,7 +15404,7 @@
         <v>322</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C114" s="29">
         <v>1</v>
@@ -15978,7 +15978,7 @@
         <v>293</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C155" s="30">
         <v>1</v>
@@ -15992,7 +15992,7 @@
         <v>295</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C156" s="29">
         <v>1</v>
@@ -16006,7 +16006,7 @@
         <v>297</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C157" s="30">
         <v>1</v>
@@ -16020,7 +16020,7 @@
         <v>299</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C158" s="29">
         <v>1</v>
@@ -16034,7 +16034,7 @@
         <v>301</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C159" s="30">
         <v>1</v>
@@ -16048,7 +16048,7 @@
         <v>305</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C160" s="29">
         <v>1</v>
@@ -16062,7 +16062,7 @@
         <v>309</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C161" s="30">
         <v>1</v>
@@ -16076,7 +16076,7 @@
         <v>311</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C162" s="29">
         <v>1</v>
@@ -16090,7 +16090,7 @@
         <v>313</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C163" s="30">
         <v>1</v>
@@ -16104,7 +16104,7 @@
         <v>315</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C164" s="29">
         <v>1</v>
@@ -16118,7 +16118,7 @@
         <v>316</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C165" s="30">
         <v>1</v>
@@ -16132,7 +16132,7 @@
         <v>318</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C166" s="29">
         <v>1</v>
@@ -16146,7 +16146,7 @@
         <v>320</v>
       </c>
       <c r="B167" s="25" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C167" s="30">
         <v>1</v>
@@ -16160,7 +16160,7 @@
         <v>322</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C168" s="29">
         <v>1</v>
@@ -16174,7 +16174,7 @@
         <v>293</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C169" s="30">
         <v>1</v>
@@ -16188,7 +16188,7 @@
         <v>295</v>
       </c>
       <c r="B170" s="23" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C170" s="29">
         <v>1</v>
@@ -16202,7 +16202,7 @@
         <v>297</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C171" s="30">
         <v>1</v>
@@ -16216,7 +16216,7 @@
         <v>299</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C172" s="29">
         <v>1</v>
@@ -16230,7 +16230,7 @@
         <v>301</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C173" s="30">
         <v>1</v>
@@ -16244,7 +16244,7 @@
         <v>305</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C174" s="29">
         <v>1</v>
@@ -16258,7 +16258,7 @@
         <v>309</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C175" s="30">
         <v>1</v>
@@ -16272,7 +16272,7 @@
         <v>311</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C176" s="29">
         <v>1</v>
@@ -16286,7 +16286,7 @@
         <v>313</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C177" s="30">
         <v>1</v>
@@ -16300,7 +16300,7 @@
         <v>315</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C178" s="29">
         <v>1</v>
@@ -16314,7 +16314,7 @@
         <v>316</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C179" s="30">
         <v>1</v>
@@ -16328,7 +16328,7 @@
         <v>318</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C180" s="29">
         <v>1</v>
@@ -16342,7 +16342,7 @@
         <v>320</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C181" s="30">
         <v>1</v>
@@ -16356,7 +16356,7 @@
         <v>322</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C182" s="29">
         <v>1</v>
@@ -16595,7 +16595,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -16608,55 +16608,55 @@
     </row>
     <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="I3" s="37"/>
     </row>
@@ -16665,22 +16665,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="H4" s="41"/>
       <c r="I4" s="37"/>
@@ -16690,20 +16690,20 @@
         <v>2</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="43" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="37"/>
@@ -16713,18 +16713,18 @@
         <v>3</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="47"/>
       <c r="G6" s="40" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="37"/>
@@ -16734,18 +16734,18 @@
         <v>4</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="44"/>
       <c r="G7" s="45" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="H7" s="46"/>
       <c r="I7" s="37"/>
@@ -16755,18 +16755,18 @@
         <v>5</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="47"/>
       <c r="G8" s="40" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H8" s="41"/>
       <c r="I8" s="37"/>
@@ -16776,10 +16776,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>290</v>
@@ -16787,7 +16787,7 @@
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="45" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="H9" s="46"/>
       <c r="I9" s="37"/>
@@ -16797,18 +16797,18 @@
         <v>7</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="47"/>
       <c r="G10" s="40" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="37"/>
@@ -16818,18 +16818,18 @@
         <v>8</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="45" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="H11" s="46"/>
       <c r="I11" s="37"/>
@@ -16839,18 +16839,18 @@
         <v>9</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
       <c r="G12" s="40" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="37"/>
@@ -16893,7 +16893,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -16904,22 +16904,22 @@
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>327</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="G2" s="54"/>
     </row>
@@ -16928,16 +16928,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="F3" s="57">
         <v>1496</v>
@@ -16949,16 +16949,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F4" s="60">
         <v>585</v>
@@ -16970,16 +16970,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F5" s="57">
         <v>59201</v>
@@ -16991,16 +16991,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F6" s="60">
         <v>622</v>
@@ -17012,7 +17012,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>24</v>
@@ -17021,7 +17021,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F7" s="57">
         <v>470</v>

--- a/static/mock/AntiBio2.xlsx
+++ b/static/mock/AntiBio2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexglushko/ProgProjects/ChemML/static/mock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632779A6-3EC0-2A41-B52C-96C348F37625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBFE568-381A-1041-AECC-E9EDE92E214F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -7963,9 +7963,6 @@
     <t>Bacteria</t>
   </si>
   <si>
-    <t>Is salt</t>
-  </si>
-  <si>
     <t>Stunting diameter</t>
   </si>
   <si>
@@ -8252,6 +8249,9 @@
   </si>
   <si>
     <t>Cell layers (bacteria)</t>
+  </si>
+  <si>
+    <t>Salt/Solution</t>
   </si>
 </sst>
 </file>
@@ -10006,7 +10006,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{64C76E0E-892D-41E7-9527-05DA1B24F613}" name="REE" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{5E4C1DA6-E460-416D-81D4-3AC6D1794B73}" name="Bacteria" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{1E18E06E-62A6-41BB-8563-1D3A9F51D859}" name="Is salt" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{1E18E06E-62A6-41BB-8563-1D3A9F51D859}" name="Salt/Solution" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{FAB53BF3-5AE2-4C61-ABA2-4C779732F205}" name="Stunting diameter" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -12587,40 +12587,40 @@
         <v>288</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C1" s="68" t="s">
         <v>289</v>
       </c>
       <c r="D1" s="68" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1" s="68" t="s">
         <v>409</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="F1" s="68" t="s">
         <v>410</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="G1" s="68" t="s">
         <v>411</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="H1" s="68" t="s">
         <v>412</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="I1" s="68" t="s">
         <v>413</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="J1" s="68" t="s">
         <v>414</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="K1" s="68" t="s">
         <v>415</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="L1" s="68" t="s">
         <v>416</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="M1" s="68" t="s">
         <v>417</v>
-      </c>
-      <c r="M1" s="68" t="s">
-        <v>418</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>291</v>
@@ -13386,7 +13386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -13413,40 +13413,40 @@
         <v>327</v>
       </c>
       <c r="B1" s="84" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1" s="84" t="s">
         <v>419</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="D1" s="84" t="s">
         <v>420</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="E1" s="84" t="s">
         <v>421</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="F1" s="84" t="s">
         <v>422</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="G1" s="84" t="s">
         <v>423</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="H1" s="84" t="s">
         <v>424</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="I1" s="84" t="s">
         <v>425</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="J1" s="84" t="s">
         <v>426</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="K1" s="84" t="s">
         <v>427</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="L1" s="84" t="s">
         <v>428</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="M1" s="85" t="s">
         <v>429</v>
-      </c>
-      <c r="M1" s="85" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13803,8 +13803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D196"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13825,10 +13825,10 @@
         <v>333</v>
       </c>
       <c r="C1" s="84" t="s">
+        <v>430</v>
+      </c>
+      <c r="D1" s="85" t="s">
         <v>334</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15978,7 +15978,7 @@
         <v>293</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C155" s="30">
         <v>1</v>
@@ -15992,7 +15992,7 @@
         <v>295</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C156" s="29">
         <v>1</v>
@@ -16006,7 +16006,7 @@
         <v>297</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C157" s="30">
         <v>1</v>
@@ -16020,7 +16020,7 @@
         <v>299</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C158" s="29">
         <v>1</v>
@@ -16034,7 +16034,7 @@
         <v>301</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C159" s="30">
         <v>1</v>
@@ -16048,7 +16048,7 @@
         <v>305</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C160" s="29">
         <v>1</v>
@@ -16062,7 +16062,7 @@
         <v>309</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C161" s="30">
         <v>1</v>
@@ -16076,7 +16076,7 @@
         <v>311</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C162" s="29">
         <v>1</v>
@@ -16090,7 +16090,7 @@
         <v>313</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C163" s="30">
         <v>1</v>
@@ -16104,7 +16104,7 @@
         <v>315</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C164" s="29">
         <v>1</v>
@@ -16118,7 +16118,7 @@
         <v>316</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C165" s="30">
         <v>1</v>
@@ -16132,7 +16132,7 @@
         <v>318</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C166" s="29">
         <v>1</v>
@@ -16146,7 +16146,7 @@
         <v>320</v>
       </c>
       <c r="B167" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C167" s="30">
         <v>1</v>
@@ -16160,7 +16160,7 @@
         <v>322</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C168" s="29">
         <v>1</v>
@@ -16174,7 +16174,7 @@
         <v>293</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C169" s="30">
         <v>1</v>
@@ -16188,7 +16188,7 @@
         <v>295</v>
       </c>
       <c r="B170" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C170" s="29">
         <v>1</v>
@@ -16202,7 +16202,7 @@
         <v>297</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C171" s="30">
         <v>1</v>
@@ -16216,7 +16216,7 @@
         <v>299</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C172" s="29">
         <v>1</v>
@@ -16230,7 +16230,7 @@
         <v>301</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C173" s="30">
         <v>1</v>
@@ -16244,7 +16244,7 @@
         <v>305</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C174" s="29">
         <v>1</v>
@@ -16258,7 +16258,7 @@
         <v>309</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C175" s="30">
         <v>1</v>
@@ -16272,7 +16272,7 @@
         <v>311</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C176" s="29">
         <v>1</v>
@@ -16286,7 +16286,7 @@
         <v>313</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C177" s="30">
         <v>1</v>
@@ -16300,7 +16300,7 @@
         <v>315</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C178" s="29">
         <v>1</v>
@@ -16314,7 +16314,7 @@
         <v>316</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C179" s="30">
         <v>1</v>
@@ -16328,7 +16328,7 @@
         <v>318</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C180" s="29">
         <v>1</v>
@@ -16342,7 +16342,7 @@
         <v>320</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C181" s="30">
         <v>1</v>
@@ -16356,7 +16356,7 @@
         <v>322</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C182" s="29">
         <v>1</v>
@@ -16595,7 +16595,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -16608,55 +16608,55 @@
     </row>
     <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="E2" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="H2" s="33" t="s">
         <v>345</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>346</v>
       </c>
       <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>327</v>
       </c>
       <c r="C3" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="H3" s="36" t="s">
         <v>352</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>353</v>
       </c>
       <c r="I3" s="37"/>
     </row>
@@ -16665,22 +16665,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>354</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="D4" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="E4" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="F4" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="G4" s="40" t="s">
         <v>358</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>359</v>
       </c>
       <c r="H4" s="41"/>
       <c r="I4" s="37"/>
@@ -16690,20 +16690,20 @@
         <v>2</v>
       </c>
       <c r="B5" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="D5" s="43" t="s">
         <v>361</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>362</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="G5" s="45" t="s">
         <v>363</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>364</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="37"/>
@@ -16713,18 +16713,18 @@
         <v>3</v>
       </c>
       <c r="B6" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>365</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="D6" s="39" t="s">
         <v>366</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>367</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="47"/>
       <c r="G6" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="37"/>
@@ -16734,18 +16734,18 @@
         <v>4</v>
       </c>
       <c r="B7" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="D7" s="43" t="s">
         <v>370</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>371</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="44"/>
       <c r="G7" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H7" s="46"/>
       <c r="I7" s="37"/>
@@ -16755,18 +16755,18 @@
         <v>5</v>
       </c>
       <c r="B8" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>374</v>
-      </c>
       <c r="D8" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="47"/>
       <c r="G8" s="40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H8" s="41"/>
       <c r="I8" s="37"/>
@@ -16776,10 +16776,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>376</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>377</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>290</v>
@@ -16787,7 +16787,7 @@
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H9" s="46"/>
       <c r="I9" s="37"/>
@@ -16797,18 +16797,18 @@
         <v>7</v>
       </c>
       <c r="B10" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="D10" s="39" t="s">
         <v>380</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>381</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="47"/>
       <c r="G10" s="40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="37"/>
@@ -16818,18 +16818,18 @@
         <v>8</v>
       </c>
       <c r="B11" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="D11" s="43" t="s">
         <v>384</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>385</v>
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H11" s="46"/>
       <c r="I11" s="37"/>
@@ -16839,18 +16839,18 @@
         <v>9</v>
       </c>
       <c r="B12" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="C12" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="D12" s="39" t="s">
         <v>388</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>389</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
       <c r="G12" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="37"/>
@@ -16893,7 +16893,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -16904,22 +16904,22 @@
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>327</v>
       </c>
       <c r="C2" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>392</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="E2" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="F2" s="53" t="s">
         <v>394</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>395</v>
       </c>
       <c r="G2" s="54"/>
     </row>
@@ -16928,16 +16928,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="56" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="56" t="s">
         <v>396</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="D3" s="56" t="s">
+        <v>396</v>
+      </c>
+      <c r="E3" s="56" t="s">
         <v>397</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>397</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>398</v>
       </c>
       <c r="F3" s="57">
         <v>1496</v>
@@ -16949,16 +16949,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="59" t="s">
+        <v>398</v>
+      </c>
+      <c r="C4" s="59" t="s">
         <v>399</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="D4" s="59" t="s">
+        <v>399</v>
+      </c>
+      <c r="E4" s="59" t="s">
         <v>400</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>400</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>401</v>
       </c>
       <c r="F4" s="60">
         <v>585</v>
@@ -16970,16 +16970,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="56" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>402</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>403</v>
-      </c>
       <c r="D5" s="56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F5" s="57">
         <v>59201</v>
@@ -16991,16 +16991,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="59" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" s="59" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="D6" s="59" t="s">
         <v>405</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>406</v>
-      </c>
       <c r="E6" s="59" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F6" s="60">
         <v>622</v>
@@ -17012,7 +17012,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>24</v>
@@ -17021,7 +17021,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F7" s="57">
         <v>470</v>
